--- a/biology/Botanique/Jean-Nicolas_Boulay/Jean-Nicolas_Boulay.xlsx
+++ b/biology/Botanique/Jean-Nicolas_Boulay/Jean-Nicolas_Boulay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Nicolas Boulay[1] (ou Nicolas-Jean Boulay) est un abbé et botaniste français, né le 11 juin 1837 à Vagney dans le département des Vosges et mort le 19 octobre 1905 à Lille dans le département du Nord.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Nicolas Boulay (ou Nicolas-Jean Boulay) est un abbé et botaniste français, né le 11 juin 1837 à Vagney dans le département des Vosges et mort le 19 octobre 1905 à Lille dans le département du Nord.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas-Jean Boulay naît dans une famille profondément chrétienne. Très tôt attiré à la fois par l'étude de la nature et par la foi, il entame ses études théologiques au Grand Séminaire de Saint-Dié-des-Vosges, tout en commençant déjà notamment l'étude des ronces, réputée difficile, en s'aidant des conseils du botaniste Dominique Alexandre Godron, mais également celle de la phytogéographie et de la bryologie.
 Le 25 mai 1861, Nicolas-Jean Boulay est ordonné prêtre, et nommé vicaire à Rambervillers. Il continue parallèlement ses travaux sur la flore dans la région des Vosges et publie dès 1864 ses observations sur les ronces de cette région, suivies 2 ans plus tard de ses premiers écrits concernant la phytogéographie.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1864 – Sur les Rubus des Vosges in Bull. Soc. Bot. Fr., 11 : 234-236. Version numérique sur Botanicus.
 1864-1869 – Ronces Vosgiennes. 7 fascicules. Rambervillers (1864-1866) et Saint-Dié (1867-1869). Version numérique sur Tela Botanica.
